--- a/tabelas/NCs.xlsx
+++ b/tabelas/NCs.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eletroaltaservicos-my.sharepoint.com/personal/lamba_eletroalta_com_br/Documents/Arquivos de Chat do Microsoft Teams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC19C4F3-13FB-4525-A9B0-5DA4087271FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A13246A6-4955-4239-A915-450C93A2FECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NCs" sheetId="1" r:id="rId1"/>
-    <sheet name="Referencias" sheetId="5" r:id="rId2"/>
-    <sheet name="Planilha3" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="Planilha2" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Subcategorias" sheetId="5" r:id="rId2"/>
+    <sheet name="Categorias" sheetId="6" r:id="rId3"/>
+    <sheet name="Responsavel" sheetId="7" r:id="rId4"/>
+    <sheet name="Planilha3" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="Planilha2" sheetId="3" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Referencias!$N$1:$N$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Subcategorias!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NCs!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -54,7 +56,7 @@
     <t>Categoria</t>
   </si>
   <si>
-    <t>CategoriaID</t>
+    <t>CategoriaId</t>
   </si>
   <si>
     <t>Subcategoria</t>
@@ -5621,31 +5623,31 @@
     <t>Solicitar a empresa contratada para atualizar a ficha de registro do trabalhador que presta serviços com intervenções nas instalações elétricas com cargo condizente com as funções realizadas.</t>
   </si>
   <si>
+    <t>Subcategorias</t>
+  </si>
+  <si>
+    <t>CONDIÇÕES DA ESTRUTURA DA SUBESTAÇÃO</t>
+  </si>
+  <si>
+    <t>DISPOSITIVOS DE PROTEÇÃO PARA OS CIRCUITOS</t>
+  </si>
+  <si>
+    <t>DISTANCIAS MÍNIMAS ENTRE FASE E NEUTRO (TABELA 21 – NBR 14039)</t>
+  </si>
+  <si>
+    <t>IDENTIFICAÇÃO DE CONDUTORES (NEUTRO PROTEÇÃO)</t>
+  </si>
+  <si>
+    <t>SELEÇÃO E INSTALAÇÃO DOS CONDUTORES</t>
+  </si>
+  <si>
+    <t>SPDA E ATERRAMENTO</t>
+  </si>
+  <si>
     <t>Categorias</t>
   </si>
   <si>
-    <t>Subcategorias</t>
-  </si>
-  <si>
     <t>ID Revisão</t>
-  </si>
-  <si>
-    <t>CONDIÇÕES DA ESTRUTURA DA SUBESTAÇÃO</t>
-  </si>
-  <si>
-    <t>DISPOSITIVOS DE PROTEÇÃO PARA OS CIRCUITOS</t>
-  </si>
-  <si>
-    <t>DISTANCIAS MÍNIMAS ENTRE FASE E NEUTRO (TABELA 21 – NBR 14039)</t>
-  </si>
-  <si>
-    <t>IDENTIFICAÇÃO DE CONDUTORES (NEUTRO PROTEÇÃO)</t>
-  </si>
-  <si>
-    <t>SELEÇÃO E INSTALAÇÃO DOS CONDUTORES</t>
-  </si>
-  <si>
-    <t>SPDA E ATERRAMENTO</t>
   </si>
   <si>
     <t>Falta de identificação dos trabalhadores autorizados a intervir nas instalações elétricas</t>
@@ -6401,7 +6403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -6507,6 +6509,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6921,8 +6926,8 @@
     <tableColumn id="1" xr3:uid="{35B32C8D-E67E-42CF-BA55-0219FBB7E3B6}" name="ID" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{226A3EEF-FBEA-484D-9055-3219D4D42222}" name="Ativo" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{23FC1A01-88AC-4E3B-A500-CC57410BD7D1}" name="Categoria" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{DB940EAE-92A5-4F28-8354-6656354A968E}" name="CategoriaID" dataDxfId="14">
-      <calculatedColumnFormula>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{DB940EAE-92A5-4F28-8354-6656354A968E}" name="CategoriaId" dataDxfId="14">
+      <calculatedColumnFormula>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{597B5985-6128-475A-A7F5-53D3D332D969}" name="Subcategoria" dataDxfId="13"/>
     <tableColumn id="16" xr3:uid="{CAD0F10E-E152-49C7-8E98-4384B443E550}" name="SubcategoriaId" dataDxfId="12">
@@ -6943,24 +6948,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5184AE24-C8D5-412E-A974-34AB28873B80}" name="Tabela2" displayName="Tabela2" ref="B1:C15" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="B1:C15" xr:uid="{5184AE24-C8D5-412E-A974-34AB28873B80}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9738473E-798B-49F7-BEDE-69EE61051212}" name="Tabela3" displayName="Tabela3" ref="A1:B60" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="A1:B60" xr:uid="{9738473E-798B-49F7-BEDE-69EE61051212}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{8671DDF3-0AEF-438E-8147-9E97425BDCB1}" name="Categorias" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{4366E29F-1910-4820-89C2-80425FED8368}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{25309051-C361-4D14-87B5-8CE251D106C4}" name="Subcategorias" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{D4E5CE4D-70B1-4810-9C73-4140416DE046}" name="ID"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{9738473E-798B-49F7-BEDE-69EE61051212}" name="Tabela3" displayName="Tabela3" ref="E1:F60" totalsRowShown="0" tableBorderDxfId="1">
-  <autoFilter ref="E1:F60" xr:uid="{9738473E-798B-49F7-BEDE-69EE61051212}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A68DB541-FDD6-4EBF-BAE7-E4B74B3109F3}" name="Tabela25" displayName="Tabela25" ref="A1:B15" totalsRowShown="0" tableBorderDxfId="1">
+  <autoFilter ref="A1:B15" xr:uid="{A68DB541-FDD6-4EBF-BAE7-E4B74B3109F3}"/>
   <tableColumns count="2">
-    <tableColumn id="2" xr3:uid="{25309051-C361-4D14-87B5-8CE251D106C4}" name="Subcategorias" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{D4E5CE4D-70B1-4810-9C73-4140416DE046}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{2002CBC2-32AE-4FD3-8CC9-E161554432EE}" name="Categorias" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00B437EF-B485-474A-8876-847243E78FA3}" name="ID"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7254,7 +7259,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="13.15" customHeight="1"/>
@@ -7262,9 +7267,9 @@
     <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" style="3"/>
-    <col min="4" max="4" width="9.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="28.85546875" style="3"/>
-    <col min="6" max="6" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="3" customWidth="1"/>
     <col min="7" max="10" width="28.85546875" style="3"/>
     <col min="11" max="11" width="31.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="28.85546875" style="3"/>
@@ -7273,7 +7278,7 @@
     <col min="16" max="16384" width="28.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="11" customFormat="1" ht="18.75">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -7283,13 +7288,13 @@
       <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="40" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="34" t="s">
@@ -7331,7 +7336,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -7378,7 +7383,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E3" s="19" t="s">
@@ -7425,7 +7430,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -7472,7 +7477,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E5" s="19" t="s">
@@ -7519,7 +7524,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E6" s="19" t="s">
@@ -7566,7 +7571,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E7" s="19"/>
@@ -7611,7 +7616,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -7658,7 +7663,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E9" s="19" t="s">
@@ -7705,7 +7710,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -7752,7 +7757,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -7799,7 +7804,7 @@
         <v>16</v>
       </c>
       <c r="D12" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -7846,7 +7851,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E13" s="19" t="s">
@@ -7893,7 +7898,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -7940,7 +7945,7 @@
         <v>16</v>
       </c>
       <c r="D15" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E15" s="19" t="s">
@@ -7987,7 +7992,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E16" s="19" t="s">
@@ -8034,7 +8039,7 @@
         <v>16</v>
       </c>
       <c r="D17" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E17" s="19" t="s">
@@ -8081,7 +8086,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E18" s="19" t="s">
@@ -8128,7 +8133,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -8175,7 +8180,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E20" s="19" t="s">
@@ -8222,7 +8227,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E21" s="19" t="s">
@@ -8269,7 +8274,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E22" s="19" t="s">
@@ -8316,7 +8321,7 @@
         <v>16</v>
       </c>
       <c r="D23" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E23" s="19" t="s">
@@ -8363,7 +8368,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -8410,7 +8415,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E25" s="19" t="s">
@@ -8457,7 +8462,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E26" s="19" t="s">
@@ -8504,7 +8509,7 @@
         <v>16</v>
       </c>
       <c r="D27" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E27" s="19" t="s">
@@ -8551,7 +8556,7 @@
         <v>16</v>
       </c>
       <c r="D28" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E28" s="19" t="s">
@@ -8598,7 +8603,7 @@
         <v>16</v>
       </c>
       <c r="D29" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E29" s="19" t="s">
@@ -8645,7 +8650,7 @@
         <v>16</v>
       </c>
       <c r="D30" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E30" s="19" t="s">
@@ -8692,7 +8697,7 @@
         <v>16</v>
       </c>
       <c r="D31" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E31" s="19" t="s">
@@ -8739,7 +8744,7 @@
         <v>16</v>
       </c>
       <c r="D32" s="35">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E32" s="35" t="s">
@@ -8784,7 +8789,7 @@
         <v>16</v>
       </c>
       <c r="D33" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E33" s="19" t="s">
@@ -8831,7 +8836,7 @@
         <v>16</v>
       </c>
       <c r="D34" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E34" s="19" t="s">
@@ -8878,7 +8883,7 @@
         <v>16</v>
       </c>
       <c r="D35" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E35" s="19" t="s">
@@ -8925,7 +8930,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="35">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E36" s="35" t="s">
@@ -8970,7 +8975,7 @@
         <v>16</v>
       </c>
       <c r="D37" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E37" s="19" t="s">
@@ -9017,7 +9022,7 @@
         <v>16</v>
       </c>
       <c r="D38" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -9064,7 +9069,7 @@
         <v>16</v>
       </c>
       <c r="D39" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E39" s="19" t="s">
@@ -9111,7 +9116,7 @@
         <v>16</v>
       </c>
       <c r="D40" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E40" s="19" t="s">
@@ -9158,7 +9163,7 @@
         <v>16</v>
       </c>
       <c r="D41" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E41" s="19" t="s">
@@ -9205,7 +9210,7 @@
         <v>16</v>
       </c>
       <c r="D42" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E42" s="19" t="s">
@@ -9252,7 +9257,7 @@
         <v>16</v>
       </c>
       <c r="D43" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E43" s="19" t="s">
@@ -9299,7 +9304,7 @@
         <v>16</v>
       </c>
       <c r="D44" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E44" s="19" t="s">
@@ -9346,7 +9351,7 @@
         <v>16</v>
       </c>
       <c r="D45" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E45" s="19" t="s">
@@ -9393,7 +9398,7 @@
         <v>16</v>
       </c>
       <c r="D46" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E46" s="19" t="s">
@@ -9440,7 +9445,7 @@
         <v>16</v>
       </c>
       <c r="D47" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E47" s="19" t="s">
@@ -9487,7 +9492,7 @@
         <v>16</v>
       </c>
       <c r="D48" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E48" s="19" t="s">
@@ -9534,7 +9539,7 @@
         <v>16</v>
       </c>
       <c r="D49" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E49" s="19" t="s">
@@ -9581,7 +9586,7 @@
         <v>16</v>
       </c>
       <c r="D50" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E50" s="19" t="s">
@@ -9628,7 +9633,7 @@
         <v>16</v>
       </c>
       <c r="D51" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E51" s="19" t="s">
@@ -9675,7 +9680,7 @@
         <v>16</v>
       </c>
       <c r="D52" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E52" s="19" t="s">
@@ -9722,7 +9727,7 @@
         <v>16</v>
       </c>
       <c r="D53" s="35">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E53" s="35" t="s">
@@ -9767,7 +9772,7 @@
         <v>16</v>
       </c>
       <c r="D54" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E54" s="19" t="s">
@@ -9814,7 +9819,7 @@
         <v>16</v>
       </c>
       <c r="D55" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E55" s="19" t="s">
@@ -9861,7 +9866,7 @@
         <v>16</v>
       </c>
       <c r="D56" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E56" s="19"/>
@@ -9906,7 +9911,7 @@
         <v>16</v>
       </c>
       <c r="D57" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E57" s="19" t="s">
@@ -9953,7 +9958,7 @@
         <v>16</v>
       </c>
       <c r="D58" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E58" s="19" t="s">
@@ -10000,7 +10005,7 @@
         <v>16</v>
       </c>
       <c r="D59" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E59" s="19" t="s">
@@ -10049,7 +10054,7 @@
         <v>16</v>
       </c>
       <c r="D60" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>1</v>
       </c>
       <c r="E60" s="20" t="s">
@@ -10096,7 +10101,7 @@
         <v>294</v>
       </c>
       <c r="D61" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>2</v>
       </c>
       <c r="E61" s="19" t="s">
@@ -10143,7 +10148,7 @@
         <v>294</v>
       </c>
       <c r="D62" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>2</v>
       </c>
       <c r="E62" s="19" t="s">
@@ -10190,7 +10195,7 @@
         <v>294</v>
       </c>
       <c r="D63" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>2</v>
       </c>
       <c r="E63" s="19" t="s">
@@ -10237,7 +10242,7 @@
         <v>294</v>
       </c>
       <c r="D64" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>2</v>
       </c>
       <c r="E64" s="19" t="s">
@@ -10284,7 +10289,7 @@
         <v>294</v>
       </c>
       <c r="D65" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>2</v>
       </c>
       <c r="E65" s="19" t="s">
@@ -10331,7 +10336,7 @@
         <v>294</v>
       </c>
       <c r="D66" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>2</v>
       </c>
       <c r="E66" s="19" t="s">
@@ -10378,7 +10383,7 @@
         <v>294</v>
       </c>
       <c r="D67" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>2</v>
       </c>
       <c r="E67" s="19" t="s">
@@ -10425,7 +10430,7 @@
         <v>294</v>
       </c>
       <c r="D68" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>2</v>
       </c>
       <c r="E68" s="19" t="s">
@@ -10472,7 +10477,7 @@
         <v>294</v>
       </c>
       <c r="D69" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>2</v>
       </c>
       <c r="E69" s="19" t="s">
@@ -10519,7 +10524,7 @@
         <v>294</v>
       </c>
       <c r="D70" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>2</v>
       </c>
       <c r="E70" s="19" t="s">
@@ -10566,7 +10571,7 @@
         <v>342</v>
       </c>
       <c r="D71" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>3</v>
       </c>
       <c r="E71" s="19"/>
@@ -10611,7 +10616,7 @@
         <v>342</v>
       </c>
       <c r="D72" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>3</v>
       </c>
       <c r="E72" s="19"/>
@@ -10656,7 +10661,7 @@
         <v>342</v>
       </c>
       <c r="D73" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>3</v>
       </c>
       <c r="E73" s="19"/>
@@ -10701,7 +10706,7 @@
         <v>342</v>
       </c>
       <c r="D74" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>3</v>
       </c>
       <c r="E74" s="19"/>
@@ -10746,7 +10751,7 @@
         <v>342</v>
       </c>
       <c r="D75" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>3</v>
       </c>
       <c r="E75" s="19"/>
@@ -10789,7 +10794,7 @@
         <v>366</v>
       </c>
       <c r="D76" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E76" s="19" t="s">
@@ -10836,7 +10841,7 @@
         <v>366</v>
       </c>
       <c r="D77" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E77" s="19" t="s">
@@ -10883,7 +10888,7 @@
         <v>366</v>
       </c>
       <c r="D78" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E78" s="19" t="s">
@@ -10930,7 +10935,7 @@
         <v>366</v>
       </c>
       <c r="D79" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E79" s="19" t="s">
@@ -10977,7 +10982,7 @@
         <v>366</v>
       </c>
       <c r="D80" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E80" s="19" t="s">
@@ -11022,7 +11027,7 @@
         <v>366</v>
       </c>
       <c r="D81" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E81" s="19" t="s">
@@ -11071,7 +11076,7 @@
         <v>366</v>
       </c>
       <c r="D82" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E82" s="19" t="s">
@@ -11118,7 +11123,7 @@
         <v>366</v>
       </c>
       <c r="D83" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E83" s="19" t="s">
@@ -11165,7 +11170,7 @@
         <v>366</v>
       </c>
       <c r="D84" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E84" s="19" t="s">
@@ -11212,7 +11217,7 @@
         <v>366</v>
       </c>
       <c r="D85" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E85" s="19" t="s">
@@ -11259,7 +11264,7 @@
         <v>366</v>
       </c>
       <c r="D86" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E86" s="19" t="s">
@@ -11306,7 +11311,7 @@
         <v>366</v>
       </c>
       <c r="D87" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E87" s="19" t="s">
@@ -11353,7 +11358,7 @@
         <v>366</v>
       </c>
       <c r="D88" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E88" s="19" t="s">
@@ -11400,7 +11405,7 @@
         <v>366</v>
       </c>
       <c r="D89" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E89" s="19" t="s">
@@ -11447,7 +11452,7 @@
         <v>366</v>
       </c>
       <c r="D90" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E90" s="19" t="s">
@@ -11494,7 +11499,7 @@
         <v>366</v>
       </c>
       <c r="D91" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E91" s="19" t="s">
@@ -11543,7 +11548,7 @@
         <v>366</v>
       </c>
       <c r="D92" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E92" s="19" t="s">
@@ -11590,7 +11595,7 @@
         <v>366</v>
       </c>
       <c r="D93" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E93" s="19" t="s">
@@ -11637,7 +11642,7 @@
         <v>366</v>
       </c>
       <c r="D94" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E94" s="19" t="s">
@@ -11684,7 +11689,7 @@
         <v>366</v>
       </c>
       <c r="D95" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E95" s="19" t="s">
@@ -11731,7 +11736,7 @@
         <v>366</v>
       </c>
       <c r="D96" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E96" s="19" t="s">
@@ -11778,7 +11783,7 @@
         <v>366</v>
       </c>
       <c r="D97" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E97" s="19" t="s">
@@ -11827,7 +11832,7 @@
         <v>366</v>
       </c>
       <c r="D98" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E98" s="19" t="s">
@@ -11876,7 +11881,7 @@
         <v>366</v>
       </c>
       <c r="D99" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E99" s="19" t="s">
@@ -11921,7 +11926,7 @@
         <v>366</v>
       </c>
       <c r="D100" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E100" s="19" t="s">
@@ -11968,7 +11973,7 @@
         <v>366</v>
       </c>
       <c r="D101" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E101" s="19" t="s">
@@ -12015,7 +12020,7 @@
         <v>366</v>
       </c>
       <c r="D102" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E102" s="19" t="s">
@@ -12062,7 +12067,7 @@
         <v>366</v>
       </c>
       <c r="D103" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E103" s="19" t="s">
@@ -12109,7 +12114,7 @@
         <v>366</v>
       </c>
       <c r="D104" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E104" s="19" t="s">
@@ -12156,7 +12161,7 @@
         <v>366</v>
       </c>
       <c r="D105" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E105" s="19" t="s">
@@ -12203,7 +12208,7 @@
         <v>366</v>
       </c>
       <c r="D106" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E106" s="19" t="s">
@@ -12252,7 +12257,7 @@
         <v>366</v>
       </c>
       <c r="D107" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E107" s="19" t="s">
@@ -12299,7 +12304,7 @@
         <v>366</v>
       </c>
       <c r="D108" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E108" s="19" t="s">
@@ -12346,7 +12351,7 @@
         <v>366</v>
       </c>
       <c r="D109" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E109" s="19" t="s">
@@ -12393,7 +12398,7 @@
         <v>366</v>
       </c>
       <c r="D110" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E110" s="19" t="s">
@@ -12440,7 +12445,7 @@
         <v>366</v>
       </c>
       <c r="D111" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E111" s="19" t="s">
@@ -12487,7 +12492,7 @@
         <v>366</v>
       </c>
       <c r="D112" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E112" s="19" t="s">
@@ -12534,7 +12539,7 @@
         <v>366</v>
       </c>
       <c r="D113" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E113" s="19" t="s">
@@ -12581,7 +12586,7 @@
         <v>366</v>
       </c>
       <c r="D114" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E114" s="19" t="s">
@@ -12628,7 +12633,7 @@
         <v>366</v>
       </c>
       <c r="D115" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E115" s="19" t="s">
@@ -12675,7 +12680,7 @@
         <v>366</v>
       </c>
       <c r="D116" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E116" s="19" t="s">
@@ -12722,7 +12727,7 @@
         <v>366</v>
       </c>
       <c r="D117" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E117" s="19" t="s">
@@ -12769,7 +12774,7 @@
         <v>366</v>
       </c>
       <c r="D118" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E118" s="19" t="s">
@@ -12816,7 +12821,7 @@
         <v>366</v>
       </c>
       <c r="D119" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E119" s="19" t="s">
@@ -12863,7 +12868,7 @@
         <v>366</v>
       </c>
       <c r="D120" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E120" s="19" t="s">
@@ -12910,7 +12915,7 @@
         <v>366</v>
       </c>
       <c r="D121" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E121" s="19" t="s">
@@ -12957,7 +12962,7 @@
         <v>366</v>
       </c>
       <c r="D122" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E122" s="19" t="s">
@@ -13004,7 +13009,7 @@
         <v>366</v>
       </c>
       <c r="D123" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E123" s="19" t="s">
@@ -13051,7 +13056,7 @@
         <v>366</v>
       </c>
       <c r="D124" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E124" s="19" t="s">
@@ -13098,7 +13103,7 @@
         <v>366</v>
       </c>
       <c r="D125" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E125" s="19" t="s">
@@ -13145,7 +13150,7 @@
         <v>366</v>
       </c>
       <c r="D126" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E126" s="19" t="s">
@@ -13192,7 +13197,7 @@
         <v>366</v>
       </c>
       <c r="D127" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E127" s="19" t="s">
@@ -13239,7 +13244,7 @@
         <v>366</v>
       </c>
       <c r="D128" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E128" s="19" t="s">
@@ -13286,7 +13291,7 @@
         <v>366</v>
       </c>
       <c r="D129" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E129" s="19" t="s">
@@ -13333,7 +13338,7 @@
         <v>366</v>
       </c>
       <c r="D130" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E130" s="19" t="s">
@@ -13380,7 +13385,7 @@
         <v>366</v>
       </c>
       <c r="D131" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E131" s="19" t="s">
@@ -13427,7 +13432,7 @@
         <v>366</v>
       </c>
       <c r="D132" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E132" s="19" t="s">
@@ -13474,7 +13479,7 @@
         <v>366</v>
       </c>
       <c r="D133" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E133" s="19" t="s">
@@ -13521,7 +13526,7 @@
         <v>366</v>
       </c>
       <c r="D134" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E134" s="19" t="s">
@@ -13570,7 +13575,7 @@
         <v>366</v>
       </c>
       <c r="D135" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E135" s="19" t="s">
@@ -13617,7 +13622,7 @@
         <v>366</v>
       </c>
       <c r="D136" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E136" s="19" t="s">
@@ -13664,7 +13669,7 @@
         <v>366</v>
       </c>
       <c r="D137" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E137" s="19" t="s">
@@ -13711,7 +13716,7 @@
         <v>366</v>
       </c>
       <c r="D138" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E138" s="19" t="s">
@@ -13758,7 +13763,7 @@
         <v>366</v>
       </c>
       <c r="D139" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E139" s="19" t="s">
@@ -13805,7 +13810,7 @@
         <v>366</v>
       </c>
       <c r="D140" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E140" s="19" t="s">
@@ -13852,7 +13857,7 @@
         <v>366</v>
       </c>
       <c r="D141" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E141" s="19" t="s">
@@ -13899,7 +13904,7 @@
         <v>366</v>
       </c>
       <c r="D142" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E142" s="19" t="s">
@@ -13946,7 +13951,7 @@
         <v>366</v>
       </c>
       <c r="D143" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E143" s="19" t="s">
@@ -13991,7 +13996,7 @@
         <v>366</v>
       </c>
       <c r="D144" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E144" s="19" t="s">
@@ -14038,7 +14043,7 @@
         <v>366</v>
       </c>
       <c r="D145" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E145" s="19" t="s">
@@ -14085,7 +14090,7 @@
         <v>366</v>
       </c>
       <c r="D146" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E146" s="19" t="s">
@@ -14132,7 +14137,7 @@
         <v>366</v>
       </c>
       <c r="D147" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E147" s="19" t="s">
@@ -14177,7 +14182,7 @@
         <v>366</v>
       </c>
       <c r="D148" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E148" s="19" t="s">
@@ -14224,7 +14229,7 @@
         <v>366</v>
       </c>
       <c r="D149" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E149" s="19" t="s">
@@ -14271,7 +14276,7 @@
         <v>366</v>
       </c>
       <c r="D150" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E150" s="19" t="s">
@@ -14318,7 +14323,7 @@
         <v>366</v>
       </c>
       <c r="D151" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E151" s="19" t="s">
@@ -14365,7 +14370,7 @@
         <v>366</v>
       </c>
       <c r="D152" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E152" s="19" t="s">
@@ -14412,7 +14417,7 @@
         <v>366</v>
       </c>
       <c r="D153" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E153" s="19" t="s">
@@ -14457,7 +14462,7 @@
         <v>366</v>
       </c>
       <c r="D154" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E154" s="19" t="s">
@@ -14506,7 +14511,7 @@
         <v>366</v>
       </c>
       <c r="D155" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E155" s="19" t="s">
@@ -14555,7 +14560,7 @@
         <v>366</v>
       </c>
       <c r="D156" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E156" s="19" t="s">
@@ -14604,7 +14609,7 @@
         <v>366</v>
       </c>
       <c r="D157" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E157" s="19" t="s">
@@ -14651,7 +14656,7 @@
         <v>366</v>
       </c>
       <c r="D158" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E158" s="19" t="s">
@@ -14700,7 +14705,7 @@
         <v>366</v>
       </c>
       <c r="D159" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E159" s="19" t="s">
@@ -14747,7 +14752,7 @@
         <v>366</v>
       </c>
       <c r="D160" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E160" s="19" t="s">
@@ -14794,7 +14799,7 @@
         <v>366</v>
       </c>
       <c r="D161" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E161" s="19" t="s">
@@ -14841,7 +14846,7 @@
         <v>366</v>
       </c>
       <c r="D162" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E162" s="19" t="s">
@@ -14888,7 +14893,7 @@
         <v>366</v>
       </c>
       <c r="D163" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E163" s="19" t="s">
@@ -14935,7 +14940,7 @@
         <v>366</v>
       </c>
       <c r="D164" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>4</v>
       </c>
       <c r="E164" s="19" t="s">
@@ -14982,7 +14987,7 @@
         <v>725</v>
       </c>
       <c r="D165" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E165" s="19" t="s">
@@ -15027,7 +15032,7 @@
         <v>725</v>
       </c>
       <c r="D166" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E166" s="19"/>
@@ -15072,7 +15077,7 @@
         <v>725</v>
       </c>
       <c r="D167" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E167" s="19"/>
@@ -15117,7 +15122,7 @@
         <v>725</v>
       </c>
       <c r="D168" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E168" s="19" t="s">
@@ -15164,7 +15169,7 @@
         <v>725</v>
       </c>
       <c r="D169" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E169" s="19"/>
@@ -15209,7 +15214,7 @@
         <v>725</v>
       </c>
       <c r="D170" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E170" s="19" t="s">
@@ -15254,7 +15259,7 @@
         <v>725</v>
       </c>
       <c r="D171" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E171" s="19" t="s">
@@ -15299,7 +15304,7 @@
         <v>725</v>
       </c>
       <c r="D172" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E172" s="19" t="s">
@@ -15344,7 +15349,7 @@
         <v>725</v>
       </c>
       <c r="D173" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E173" s="19" t="s">
@@ -15393,7 +15398,7 @@
         <v>725</v>
       </c>
       <c r="D174" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E174" s="19" t="s">
@@ -15438,7 +15443,7 @@
         <v>725</v>
       </c>
       <c r="D175" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E175" s="19" t="s">
@@ -15483,7 +15488,7 @@
         <v>725</v>
       </c>
       <c r="D176" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E176" s="19" t="s">
@@ -15528,7 +15533,7 @@
         <v>725</v>
       </c>
       <c r="D177" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E177" s="19" t="s">
@@ -15573,7 +15578,7 @@
         <v>725</v>
       </c>
       <c r="D178" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E178" s="19" t="s">
@@ -15618,7 +15623,7 @@
         <v>725</v>
       </c>
       <c r="D179" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E179" s="19" t="s">
@@ -15663,7 +15668,7 @@
         <v>725</v>
       </c>
       <c r="D180" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E180" s="19" t="s">
@@ -15708,7 +15713,7 @@
         <v>725</v>
       </c>
       <c r="D181" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E181" s="19" t="s">
@@ -15755,7 +15760,7 @@
         <v>725</v>
       </c>
       <c r="D182" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E182" s="19" t="s">
@@ -15802,7 +15807,7 @@
         <v>725</v>
       </c>
       <c r="D183" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E183" s="19" t="s">
@@ -15849,7 +15854,7 @@
         <v>725</v>
       </c>
       <c r="D184" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E184" s="19" t="s">
@@ -15896,7 +15901,7 @@
         <v>725</v>
       </c>
       <c r="D185" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>5</v>
       </c>
       <c r="E185" s="19" t="s">
@@ -15941,7 +15946,7 @@
         <v>821</v>
       </c>
       <c r="D186" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E186" s="19"/>
@@ -15986,7 +15991,7 @@
         <v>821</v>
       </c>
       <c r="D187" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E187" s="19"/>
@@ -16029,7 +16034,7 @@
         <v>821</v>
       </c>
       <c r="D188" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E188" s="19"/>
@@ -16074,7 +16079,7 @@
         <v>821</v>
       </c>
       <c r="D189" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E189" s="19"/>
@@ -16119,7 +16124,7 @@
         <v>821</v>
       </c>
       <c r="D190" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E190" s="19"/>
@@ -16162,7 +16167,7 @@
         <v>821</v>
       </c>
       <c r="D191" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E191" s="19"/>
@@ -16205,7 +16210,7 @@
         <v>821</v>
       </c>
       <c r="D192" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E192" s="19"/>
@@ -16248,7 +16253,7 @@
         <v>821</v>
       </c>
       <c r="D193" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E193" s="19"/>
@@ -16293,7 +16298,7 @@
         <v>821</v>
       </c>
       <c r="D194" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E194" s="19"/>
@@ -16338,7 +16343,7 @@
         <v>821</v>
       </c>
       <c r="D195" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E195" s="19"/>
@@ -16383,7 +16388,7 @@
         <v>821</v>
       </c>
       <c r="D196" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E196" s="19"/>
@@ -16428,7 +16433,7 @@
         <v>821</v>
       </c>
       <c r="D197" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E197" s="19"/>
@@ -16471,7 +16476,7 @@
         <v>821</v>
       </c>
       <c r="D198" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E198" s="19"/>
@@ -16516,7 +16521,7 @@
         <v>821</v>
       </c>
       <c r="D199" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>6</v>
       </c>
       <c r="E199" s="19"/>
@@ -16561,7 +16566,7 @@
         <v>883</v>
       </c>
       <c r="D200" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E200" s="19"/>
@@ -16606,7 +16611,7 @@
         <v>883</v>
       </c>
       <c r="D201" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E201" s="19"/>
@@ -16651,7 +16656,7 @@
         <v>883</v>
       </c>
       <c r="D202" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E202" s="19"/>
@@ -16696,7 +16701,7 @@
         <v>883</v>
       </c>
       <c r="D203" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E203" s="19" t="s">
@@ -16743,7 +16748,7 @@
         <v>883</v>
       </c>
       <c r="D204" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E204" s="19" t="s">
@@ -16790,7 +16795,7 @@
         <v>883</v>
       </c>
       <c r="D205" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E205" s="19" t="s">
@@ -16837,7 +16842,7 @@
         <v>883</v>
       </c>
       <c r="D206" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E206" s="19" t="s">
@@ -16884,7 +16889,7 @@
         <v>883</v>
       </c>
       <c r="D207" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E207" s="19"/>
@@ -16929,7 +16934,7 @@
         <v>883</v>
       </c>
       <c r="D208" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E208" s="19" t="s">
@@ -16976,7 +16981,7 @@
         <v>883</v>
       </c>
       <c r="D209" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E209" s="19"/>
@@ -17021,7 +17026,7 @@
         <v>883</v>
       </c>
       <c r="D210" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E210" s="19"/>
@@ -17068,7 +17073,7 @@
         <v>883</v>
       </c>
       <c r="D211" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E211" s="19"/>
@@ -17115,7 +17120,7 @@
         <v>883</v>
       </c>
       <c r="D212" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E212" s="19"/>
@@ -17160,7 +17165,7 @@
         <v>883</v>
       </c>
       <c r="D213" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E213" s="19" t="s">
@@ -17207,7 +17212,7 @@
         <v>883</v>
       </c>
       <c r="D214" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E214" s="19"/>
@@ -17252,7 +17257,7 @@
         <v>883</v>
       </c>
       <c r="D215" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E215" s="19" t="s">
@@ -17299,7 +17304,7 @@
         <v>883</v>
       </c>
       <c r="D216" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E216" s="19" t="s">
@@ -17348,7 +17353,7 @@
         <v>883</v>
       </c>
       <c r="D217" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E217" s="19"/>
@@ -17393,7 +17398,7 @@
         <v>883</v>
       </c>
       <c r="D218" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E218" s="19"/>
@@ -17438,7 +17443,7 @@
         <v>883</v>
       </c>
       <c r="D219" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E219" s="19" t="s">
@@ -17485,7 +17490,7 @@
         <v>883</v>
       </c>
       <c r="D220" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E220" s="19" t="s">
@@ -17532,7 +17537,7 @@
         <v>883</v>
       </c>
       <c r="D221" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E221" s="19" t="s">
@@ -17579,7 +17584,7 @@
         <v>883</v>
       </c>
       <c r="D222" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E222" s="19" t="s">
@@ -17626,7 +17631,7 @@
         <v>883</v>
       </c>
       <c r="D223" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E223" s="19" t="s">
@@ -17673,7 +17678,7 @@
         <v>883</v>
       </c>
       <c r="D224" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E224" s="19" t="s">
@@ -17720,7 +17725,7 @@
         <v>883</v>
       </c>
       <c r="D225" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E225" s="19" t="s">
@@ -17767,7 +17772,7 @@
         <v>883</v>
       </c>
       <c r="D226" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E226" s="19" t="s">
@@ -17814,7 +17819,7 @@
         <v>883</v>
       </c>
       <c r="D227" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E227" s="19" t="s">
@@ -17861,7 +17866,7 @@
         <v>883</v>
       </c>
       <c r="D228" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E228" s="19" t="s">
@@ -17908,7 +17913,7 @@
         <v>883</v>
       </c>
       <c r="D229" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E229" s="19" t="s">
@@ -17955,7 +17960,7 @@
         <v>883</v>
       </c>
       <c r="D230" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E230" s="19" t="s">
@@ -18002,7 +18007,7 @@
         <v>883</v>
       </c>
       <c r="D231" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E231" s="19" t="s">
@@ -18049,7 +18054,7 @@
         <v>883</v>
       </c>
       <c r="D232" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E232" s="19" t="s">
@@ -18096,7 +18101,7 @@
         <v>883</v>
       </c>
       <c r="D233" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E233" s="19" t="s">
@@ -18143,7 +18148,7 @@
         <v>883</v>
       </c>
       <c r="D234" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E234" s="19"/>
@@ -18188,7 +18193,7 @@
         <v>883</v>
       </c>
       <c r="D235" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E235" s="19" t="s">
@@ -18237,7 +18242,7 @@
         <v>883</v>
       </c>
       <c r="D236" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E236" s="19" t="s">
@@ -18284,7 +18289,7 @@
         <v>883</v>
       </c>
       <c r="D237" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E237" s="19" t="s">
@@ -18331,7 +18336,7 @@
         <v>883</v>
       </c>
       <c r="D238" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E238" s="19" t="s">
@@ -18378,7 +18383,7 @@
         <v>883</v>
       </c>
       <c r="D239" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E239" s="19" t="s">
@@ -18425,7 +18430,7 @@
         <v>883</v>
       </c>
       <c r="D240" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E240" s="19" t="s">
@@ -18472,7 +18477,7 @@
         <v>883</v>
       </c>
       <c r="D241" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E241" s="19" t="s">
@@ -18519,7 +18524,7 @@
         <v>883</v>
       </c>
       <c r="D242" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E242" s="19" t="s">
@@ -18566,7 +18571,7 @@
         <v>883</v>
       </c>
       <c r="D243" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E243" s="19"/>
@@ -18613,7 +18618,7 @@
         <v>883</v>
       </c>
       <c r="D244" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E244" s="19" t="s">
@@ -18660,7 +18665,7 @@
         <v>883</v>
       </c>
       <c r="D245" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E245" s="19" t="s">
@@ -18707,7 +18712,7 @@
         <v>883</v>
       </c>
       <c r="D246" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>7</v>
       </c>
       <c r="E246" s="19"/>
@@ -18752,7 +18757,7 @@
         <v>1073</v>
       </c>
       <c r="D247" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E247" s="19"/>
@@ -18799,7 +18804,7 @@
         <v>1073</v>
       </c>
       <c r="D248" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E248" s="19"/>
@@ -18844,7 +18849,7 @@
         <v>1073</v>
       </c>
       <c r="D249" s="35">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E249" s="35"/>
@@ -18879,7 +18884,7 @@
         <v>1073</v>
       </c>
       <c r="D250" s="35">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E250" s="35"/>
@@ -18914,7 +18919,7 @@
         <v>1073</v>
       </c>
       <c r="D251" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E251" s="19"/>
@@ -18959,7 +18964,7 @@
         <v>1073</v>
       </c>
       <c r="D252" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E252" s="19"/>
@@ -19004,7 +19009,7 @@
         <v>1073</v>
       </c>
       <c r="D253" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E253" s="19"/>
@@ -19049,7 +19054,7 @@
         <v>1073</v>
       </c>
       <c r="D254" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E254" s="19"/>
@@ -19092,7 +19097,7 @@
         <v>1073</v>
       </c>
       <c r="D255" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E255" s="19"/>
@@ -19137,7 +19142,7 @@
         <v>1073</v>
       </c>
       <c r="D256" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E256" s="19"/>
@@ -19182,7 +19187,7 @@
         <v>1073</v>
       </c>
       <c r="D257" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E257" s="19"/>
@@ -19227,7 +19232,7 @@
         <v>1073</v>
       </c>
       <c r="D258" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E258" s="19"/>
@@ -19272,7 +19277,7 @@
         <v>1073</v>
       </c>
       <c r="D259" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E259" s="19"/>
@@ -19317,7 +19322,7 @@
         <v>1073</v>
       </c>
       <c r="D260" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E260" s="19"/>
@@ -19362,7 +19367,7 @@
         <v>1073</v>
       </c>
       <c r="D261" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E261" s="19"/>
@@ -19407,7 +19412,7 @@
         <v>1073</v>
       </c>
       <c r="D262" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E262" s="19"/>
@@ -19452,7 +19457,7 @@
         <v>1073</v>
       </c>
       <c r="D263" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E263" s="19"/>
@@ -19497,7 +19502,7 @@
         <v>1073</v>
       </c>
       <c r="D264" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E264" s="19"/>
@@ -19542,7 +19547,7 @@
         <v>1073</v>
       </c>
       <c r="D265" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E265" s="19"/>
@@ -19587,7 +19592,7 @@
         <v>1073</v>
       </c>
       <c r="D266" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E266" s="19"/>
@@ -19632,7 +19637,7 @@
         <v>1073</v>
       </c>
       <c r="D267" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E267" s="19"/>
@@ -19677,7 +19682,7 @@
         <v>1073</v>
       </c>
       <c r="D268" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E268" s="19"/>
@@ -19724,7 +19729,7 @@
         <v>1073</v>
       </c>
       <c r="D269" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E269" s="19"/>
@@ -19769,7 +19774,7 @@
         <v>1073</v>
       </c>
       <c r="D270" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>8</v>
       </c>
       <c r="E270" s="19"/>
@@ -19814,7 +19819,7 @@
         <v>1158</v>
       </c>
       <c r="D271" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E271" s="19"/>
@@ -19859,7 +19864,7 @@
         <v>1158</v>
       </c>
       <c r="D272" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E272" s="19"/>
@@ -19904,7 +19909,7 @@
         <v>1158</v>
       </c>
       <c r="D273" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E273" s="19"/>
@@ -19949,7 +19954,7 @@
         <v>1158</v>
       </c>
       <c r="D274" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E274" s="19" t="s">
@@ -19996,7 +20001,7 @@
         <v>1158</v>
       </c>
       <c r="D275" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E275" s="19" t="s">
@@ -20041,7 +20046,7 @@
         <v>1158</v>
       </c>
       <c r="D276" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E276" s="19"/>
@@ -20086,7 +20091,7 @@
         <v>1158</v>
       </c>
       <c r="D277" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E277" s="19"/>
@@ -20129,7 +20134,7 @@
         <v>1158</v>
       </c>
       <c r="D278" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E278" s="19"/>
@@ -20172,7 +20177,7 @@
         <v>1158</v>
       </c>
       <c r="D279" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E279" s="19"/>
@@ -20215,7 +20220,7 @@
         <v>1158</v>
       </c>
       <c r="D280" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E280" s="19"/>
@@ -20258,7 +20263,7 @@
         <v>1158</v>
       </c>
       <c r="D281" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E281" s="19"/>
@@ -20303,7 +20308,7 @@
         <v>1158</v>
       </c>
       <c r="D282" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E282" s="19"/>
@@ -20348,7 +20353,7 @@
         <v>1158</v>
       </c>
       <c r="D283" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E283" s="19" t="s">
@@ -20393,7 +20398,7 @@
         <v>1158</v>
       </c>
       <c r="D284" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E284" s="19" t="s">
@@ -20438,7 +20443,7 @@
         <v>1158</v>
       </c>
       <c r="D285" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E285" s="19" t="s">
@@ -20483,7 +20488,7 @@
         <v>1158</v>
       </c>
       <c r="D286" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E286" s="19" t="s">
@@ -20532,7 +20537,7 @@
         <v>1158</v>
       </c>
       <c r="D287" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E287" s="19" t="s">
@@ -20581,7 +20586,7 @@
         <v>1158</v>
       </c>
       <c r="D288" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E288" s="19"/>
@@ -20624,7 +20629,7 @@
         <v>1158</v>
       </c>
       <c r="D289" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E289" s="19"/>
@@ -20669,7 +20674,7 @@
         <v>1158</v>
       </c>
       <c r="D290" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E290" s="19" t="s">
@@ -20716,7 +20721,7 @@
         <v>1158</v>
       </c>
       <c r="D291" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E291" s="19"/>
@@ -20759,7 +20764,7 @@
         <v>1158</v>
       </c>
       <c r="D292" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E292" s="19" t="s">
@@ -20806,7 +20811,7 @@
         <v>1158</v>
       </c>
       <c r="D293" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E293" s="19"/>
@@ -20849,7 +20854,7 @@
         <v>1158</v>
       </c>
       <c r="D294" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E294" s="19"/>
@@ -20894,7 +20899,7 @@
         <v>1158</v>
       </c>
       <c r="D295" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E295" s="19" t="s">
@@ -20939,7 +20944,7 @@
         <v>1158</v>
       </c>
       <c r="D296" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E296" s="19"/>
@@ -20984,7 +20989,7 @@
         <v>1158</v>
       </c>
       <c r="D297" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E297" s="19" t="s">
@@ -21029,7 +21034,7 @@
         <v>1158</v>
       </c>
       <c r="D298" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E298" s="19"/>
@@ -21074,7 +21079,7 @@
         <v>1158</v>
       </c>
       <c r="D299" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E299" s="19" t="s">
@@ -21121,7 +21126,7 @@
         <v>1158</v>
       </c>
       <c r="D300" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E300" s="19" t="s">
@@ -21168,7 +21173,7 @@
         <v>1158</v>
       </c>
       <c r="D301" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E301" s="19" t="s">
@@ -21213,7 +21218,7 @@
         <v>1158</v>
       </c>
       <c r="D302" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E302" s="19"/>
@@ -21258,7 +21263,7 @@
         <v>1158</v>
       </c>
       <c r="D303" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>9</v>
       </c>
       <c r="E303" s="19" t="s">
@@ -21305,7 +21310,7 @@
         <v>1290</v>
       </c>
       <c r="D304" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E304" s="19"/>
@@ -21350,7 +21355,7 @@
         <v>1290</v>
       </c>
       <c r="D305" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E305" s="19"/>
@@ -21395,7 +21400,7 @@
         <v>1290</v>
       </c>
       <c r="D306" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E306" s="19" t="s">
@@ -21442,7 +21447,7 @@
         <v>1290</v>
       </c>
       <c r="D307" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E307" s="19" t="s">
@@ -21489,7 +21494,7 @@
         <v>1290</v>
       </c>
       <c r="D308" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E308" s="19" t="s">
@@ -21536,7 +21541,7 @@
         <v>1290</v>
       </c>
       <c r="D309" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E309" s="19" t="s">
@@ -21583,7 +21588,7 @@
         <v>1290</v>
       </c>
       <c r="D310" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E310" s="19" t="s">
@@ -21630,7 +21635,7 @@
         <v>1290</v>
       </c>
       <c r="D311" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E311" s="19" t="s">
@@ -21677,7 +21682,7 @@
         <v>1290</v>
       </c>
       <c r="D312" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E312" s="19" t="s">
@@ -21724,7 +21729,7 @@
         <v>1290</v>
       </c>
       <c r="D313" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E313" s="19" t="s">
@@ -21771,7 +21776,7 @@
         <v>1290</v>
       </c>
       <c r="D314" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E314" s="19" t="s">
@@ -21818,7 +21823,7 @@
         <v>1290</v>
       </c>
       <c r="D315" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E315" s="19" t="s">
@@ -21865,7 +21870,7 @@
         <v>1290</v>
       </c>
       <c r="D316" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E316" s="19" t="s">
@@ -21912,7 +21917,7 @@
         <v>1290</v>
       </c>
       <c r="D317" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E317" s="19" t="s">
@@ -21959,7 +21964,7 @@
         <v>1290</v>
       </c>
       <c r="D318" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E318" s="19" t="s">
@@ -22008,7 +22013,7 @@
         <v>1290</v>
       </c>
       <c r="D319" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E319" s="19" t="s">
@@ -22055,7 +22060,7 @@
         <v>1290</v>
       </c>
       <c r="D320" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E320" s="19" t="s">
@@ -22102,7 +22107,7 @@
         <v>1290</v>
       </c>
       <c r="D321" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E321" s="19" t="s">
@@ -22149,7 +22154,7 @@
         <v>1290</v>
       </c>
       <c r="D322" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E322" s="19" t="s">
@@ -22196,7 +22201,7 @@
         <v>1290</v>
       </c>
       <c r="D323" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E323" s="19" t="s">
@@ -22243,7 +22248,7 @@
         <v>1290</v>
       </c>
       <c r="D324" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E324" s="19" t="s">
@@ -22290,7 +22295,7 @@
         <v>1290</v>
       </c>
       <c r="D325" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E325" s="19" t="s">
@@ -22337,7 +22342,7 @@
         <v>1290</v>
       </c>
       <c r="D326" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E326" s="19" t="s">
@@ -22384,7 +22389,7 @@
         <v>1290</v>
       </c>
       <c r="D327" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E327" s="19" t="s">
@@ -22431,7 +22436,7 @@
         <v>1290</v>
       </c>
       <c r="D328" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E328" s="19" t="s">
@@ -22478,7 +22483,7 @@
         <v>1290</v>
       </c>
       <c r="D329" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E329" s="19" t="s">
@@ -22525,7 +22530,7 @@
         <v>1290</v>
       </c>
       <c r="D330" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E330" s="19" t="s">
@@ -22572,7 +22577,7 @@
         <v>1290</v>
       </c>
       <c r="D331" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E331" s="19" t="s">
@@ -22619,7 +22624,7 @@
         <v>1290</v>
       </c>
       <c r="D332" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E332" s="19" t="s">
@@ -22666,7 +22671,7 @@
         <v>1290</v>
       </c>
       <c r="D333" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E333" s="19"/>
@@ -22711,7 +22716,7 @@
         <v>1290</v>
       </c>
       <c r="D334" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E334" s="19"/>
@@ -22756,7 +22761,7 @@
         <v>1290</v>
       </c>
       <c r="D335" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E335" s="19"/>
@@ -22801,7 +22806,7 @@
         <v>1290</v>
       </c>
       <c r="D336" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E336" s="19"/>
@@ -22846,7 +22851,7 @@
         <v>1290</v>
       </c>
       <c r="D337" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E337" s="19" t="s">
@@ -22893,7 +22898,7 @@
         <v>1290</v>
       </c>
       <c r="D338" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E338" s="19" t="s">
@@ -22940,7 +22945,7 @@
         <v>1290</v>
       </c>
       <c r="D339" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E339" s="19" t="s">
@@ -22987,7 +22992,7 @@
         <v>1290</v>
       </c>
       <c r="D340" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E340" s="19" t="s">
@@ -23034,7 +23039,7 @@
         <v>1290</v>
       </c>
       <c r="D341" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E341" s="19" t="s">
@@ -23081,7 +23086,7 @@
         <v>1290</v>
       </c>
       <c r="D342" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E342" s="19"/>
@@ -23128,7 +23133,7 @@
         <v>1290</v>
       </c>
       <c r="D343" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>10</v>
       </c>
       <c r="E343" s="19"/>
@@ -23173,7 +23178,7 @@
         <v>1451</v>
       </c>
       <c r="D344" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>11</v>
       </c>
       <c r="E344" s="19"/>
@@ -23220,7 +23225,7 @@
         <v>1460</v>
       </c>
       <c r="D345" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>11</v>
       </c>
       <c r="E345" s="19"/>
@@ -23265,7 +23270,7 @@
         <v>1460</v>
       </c>
       <c r="D346" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>11</v>
       </c>
       <c r="E346" s="19"/>
@@ -23310,7 +23315,7 @@
         <v>1460</v>
       </c>
       <c r="D347" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>11</v>
       </c>
       <c r="E347" s="19"/>
@@ -23355,7 +23360,7 @@
         <v>1460</v>
       </c>
       <c r="D348" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>11</v>
       </c>
       <c r="E348" s="19"/>
@@ -23400,7 +23405,7 @@
         <v>1460</v>
       </c>
       <c r="D349" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>11</v>
       </c>
       <c r="E349" s="19"/>
@@ -23445,7 +23450,7 @@
         <v>1460</v>
       </c>
       <c r="D350" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>11</v>
       </c>
       <c r="E350" s="19"/>
@@ -23490,7 +23495,7 @@
         <v>1460</v>
       </c>
       <c r="D351" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>11</v>
       </c>
       <c r="E351" s="19"/>
@@ -23535,7 +23540,7 @@
         <v>1460</v>
       </c>
       <c r="D352" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>11</v>
       </c>
       <c r="E352" s="19"/>
@@ -23580,7 +23585,7 @@
         <v>1460</v>
       </c>
       <c r="D353" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>11</v>
       </c>
       <c r="E353" s="19"/>
@@ -23625,7 +23630,7 @@
         <v>1460</v>
       </c>
       <c r="D354" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>11</v>
       </c>
       <c r="E354" s="19"/>
@@ -23670,7 +23675,7 @@
         <v>1499</v>
       </c>
       <c r="D355" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>12</v>
       </c>
       <c r="E355" s="19"/>
@@ -23715,7 +23720,7 @@
         <v>1499</v>
       </c>
       <c r="D356" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>12</v>
       </c>
       <c r="E356" s="19"/>
@@ -23760,7 +23765,7 @@
         <v>1499</v>
       </c>
       <c r="D357" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>12</v>
       </c>
       <c r="E357" s="19"/>
@@ -23805,7 +23810,7 @@
         <v>1513</v>
       </c>
       <c r="D358" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E358" s="19" t="s">
@@ -23852,7 +23857,7 @@
         <v>1513</v>
       </c>
       <c r="D359" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E359" s="19"/>
@@ -23897,7 +23902,7 @@
         <v>1513</v>
       </c>
       <c r="D360" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E360" s="19" t="s">
@@ -23944,7 +23949,7 @@
         <v>1513</v>
       </c>
       <c r="D361" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E361" s="19" t="s">
@@ -23991,7 +23996,7 @@
         <v>1513</v>
       </c>
       <c r="D362" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E362" s="19" t="s">
@@ -24038,7 +24043,7 @@
         <v>1513</v>
       </c>
       <c r="D363" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E363" s="19" t="s">
@@ -24085,7 +24090,7 @@
         <v>1513</v>
       </c>
       <c r="D364" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E364" s="19" t="s">
@@ -24132,7 +24137,7 @@
         <v>1513</v>
       </c>
       <c r="D365" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E365" s="19" t="s">
@@ -24179,7 +24184,7 @@
         <v>1513</v>
       </c>
       <c r="D366" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E366" s="19" t="s">
@@ -24226,7 +24231,7 @@
         <v>1513</v>
       </c>
       <c r="D367" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E367" s="19" t="s">
@@ -24273,7 +24278,7 @@
         <v>1513</v>
       </c>
       <c r="D368" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E368" s="19" t="s">
@@ -24320,7 +24325,7 @@
         <v>1513</v>
       </c>
       <c r="D369" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E369" s="19" t="s">
@@ -24367,7 +24372,7 @@
         <v>1513</v>
       </c>
       <c r="D370" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E370" s="19" t="s">
@@ -24414,7 +24419,7 @@
         <v>1513</v>
       </c>
       <c r="D371" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E371" s="19" t="s">
@@ -24461,7 +24466,7 @@
         <v>1513</v>
       </c>
       <c r="D372" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E372" s="19" t="s">
@@ -24508,7 +24513,7 @@
         <v>1513</v>
       </c>
       <c r="D373" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E373" s="19" t="s">
@@ -24555,7 +24560,7 @@
         <v>1513</v>
       </c>
       <c r="D374" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E374" s="19" t="s">
@@ -24602,7 +24607,7 @@
         <v>1513</v>
       </c>
       <c r="D375" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E375" s="19" t="s">
@@ -24649,7 +24654,7 @@
         <v>1513</v>
       </c>
       <c r="D376" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E376" s="19" t="s">
@@ -24696,7 +24701,7 @@
         <v>1513</v>
       </c>
       <c r="D377" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E377" s="19" t="s">
@@ -24743,7 +24748,7 @@
         <v>1513</v>
       </c>
       <c r="D378" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E378" s="19" t="s">
@@ -24790,7 +24795,7 @@
         <v>1513</v>
       </c>
       <c r="D379" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E379" s="19" t="s">
@@ -24837,7 +24842,7 @@
         <v>1513</v>
       </c>
       <c r="D380" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E380" s="19" t="s">
@@ -24884,7 +24889,7 @@
         <v>1513</v>
       </c>
       <c r="D381" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E381" s="19" t="s">
@@ -24931,7 +24936,7 @@
         <v>1513</v>
       </c>
       <c r="D382" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E382" s="19" t="s">
@@ -24978,7 +24983,7 @@
         <v>1513</v>
       </c>
       <c r="D383" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E383" s="19" t="s">
@@ -25025,7 +25030,7 @@
         <v>1513</v>
       </c>
       <c r="D384" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E384" s="19" t="s">
@@ -25072,7 +25077,7 @@
         <v>1513</v>
       </c>
       <c r="D385" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E385" s="19" t="s">
@@ -25119,7 +25124,7 @@
         <v>1513</v>
       </c>
       <c r="D386" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E386" s="19" t="s">
@@ -25166,7 +25171,7 @@
         <v>1513</v>
       </c>
       <c r="D387" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E387" s="19" t="s">
@@ -25213,7 +25218,7 @@
         <v>1513</v>
       </c>
       <c r="D388" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E388" s="19" t="s">
@@ -25260,7 +25265,7 @@
         <v>1513</v>
       </c>
       <c r="D389" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E389" s="19" t="s">
@@ -25307,7 +25312,7 @@
         <v>1513</v>
       </c>
       <c r="D390" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E390" s="19" t="s">
@@ -25354,7 +25359,7 @@
         <v>1513</v>
       </c>
       <c r="D391" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E391" s="19" t="s">
@@ -25401,7 +25406,7 @@
         <v>1513</v>
       </c>
       <c r="D392" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E392" s="19" t="s">
@@ -25448,7 +25453,7 @@
         <v>1513</v>
       </c>
       <c r="D393" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E393" s="19" t="s">
@@ -25495,7 +25500,7 @@
         <v>1513</v>
       </c>
       <c r="D394" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E394" s="19" t="s">
@@ -25544,7 +25549,7 @@
         <v>1513</v>
       </c>
       <c r="D395" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E395" s="19" t="s">
@@ -25591,7 +25596,7 @@
         <v>1513</v>
       </c>
       <c r="D396" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E396" s="19" t="s">
@@ -25638,7 +25643,7 @@
         <v>1513</v>
       </c>
       <c r="D397" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E397" s="19" t="s">
@@ -25685,7 +25690,7 @@
         <v>1513</v>
       </c>
       <c r="D398" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E398" s="19" t="s">
@@ -25732,7 +25737,7 @@
         <v>1513</v>
       </c>
       <c r="D399" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E399" s="19" t="s">
@@ -25779,7 +25784,7 @@
         <v>1513</v>
       </c>
       <c r="D400" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E400" s="19" t="s">
@@ -25826,7 +25831,7 @@
         <v>1513</v>
       </c>
       <c r="D401" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E401" s="19" t="s">
@@ -25873,7 +25878,7 @@
         <v>1513</v>
       </c>
       <c r="D402" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E402" s="19" t="s">
@@ -25920,7 +25925,7 @@
         <v>1513</v>
       </c>
       <c r="D403" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E403" s="19" t="s">
@@ -25967,7 +25972,7 @@
         <v>1513</v>
       </c>
       <c r="D404" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E404" s="19" t="s">
@@ -26014,7 +26019,7 @@
         <v>1513</v>
       </c>
       <c r="D405" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E405" s="19" t="s">
@@ -26061,7 +26066,7 @@
         <v>1513</v>
       </c>
       <c r="D406" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E406" s="19" t="s">
@@ -26108,7 +26113,7 @@
         <v>1513</v>
       </c>
       <c r="D407" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E407" s="19" t="s">
@@ -26155,7 +26160,7 @@
         <v>1513</v>
       </c>
       <c r="D408" s="20">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E408" s="20" t="s">
@@ -26196,7 +26201,7 @@
         <v>1513</v>
       </c>
       <c r="D409" s="20">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>13</v>
       </c>
       <c r="E409" s="20" t="s">
@@ -26243,7 +26248,7 @@
         <v>1699</v>
       </c>
       <c r="D410" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E410" s="19"/>
@@ -26288,7 +26293,7 @@
         <v>1699</v>
       </c>
       <c r="D411" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E411" s="19" t="s">
@@ -26335,7 +26340,7 @@
         <v>1699</v>
       </c>
       <c r="D412" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E412" s="19" t="s">
@@ -26382,7 +26387,7 @@
         <v>1699</v>
       </c>
       <c r="D413" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E413" s="19" t="s">
@@ -26429,7 +26434,7 @@
         <v>1699</v>
       </c>
       <c r="D414" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E414" s="19" t="s">
@@ -26476,7 +26481,7 @@
         <v>1699</v>
       </c>
       <c r="D415" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E415" s="19"/>
@@ -26521,7 +26526,7 @@
         <v>1699</v>
       </c>
       <c r="D416" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E416" s="19" t="s">
@@ -26568,7 +26573,7 @@
         <v>1699</v>
       </c>
       <c r="D417" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E417" s="19" t="s">
@@ -26615,7 +26620,7 @@
         <v>1699</v>
       </c>
       <c r="D418" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E418" s="19"/>
@@ -26660,7 +26665,7 @@
         <v>1699</v>
       </c>
       <c r="D419" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E419" s="19"/>
@@ -26705,7 +26710,7 @@
         <v>1699</v>
       </c>
       <c r="D420" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E420" s="19"/>
@@ -26750,7 +26755,7 @@
         <v>1699</v>
       </c>
       <c r="D421" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E421" s="19" t="s">
@@ -26797,7 +26802,7 @@
         <v>1699</v>
       </c>
       <c r="D422" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E422" s="19" t="s">
@@ -26844,7 +26849,7 @@
         <v>1699</v>
       </c>
       <c r="D423" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E423" s="19" t="s">
@@ -26891,7 +26896,7 @@
         <v>1699</v>
       </c>
       <c r="D424" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E424" s="19" t="s">
@@ -26938,7 +26943,7 @@
         <v>1699</v>
       </c>
       <c r="D425" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E425" s="19"/>
@@ -26983,7 +26988,7 @@
         <v>1699</v>
       </c>
       <c r="D426" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E426" s="19"/>
@@ -27028,7 +27033,7 @@
         <v>1699</v>
       </c>
       <c r="D427" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E427" s="19"/>
@@ -27073,7 +27078,7 @@
         <v>1699</v>
       </c>
       <c r="D428" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E428" s="19"/>
@@ -27118,7 +27123,7 @@
         <v>1699</v>
       </c>
       <c r="D429" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E429" s="19" t="s">
@@ -27165,7 +27170,7 @@
         <v>1699</v>
       </c>
       <c r="D430" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E430" s="19"/>
@@ -27210,7 +27215,7 @@
         <v>1699</v>
       </c>
       <c r="D431" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E431" s="19" t="s">
@@ -27257,7 +27262,7 @@
         <v>1699</v>
       </c>
       <c r="D432" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E432" s="19" t="s">
@@ -27304,7 +27309,7 @@
         <v>1699</v>
       </c>
       <c r="D433" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E433" s="19" t="s">
@@ -27351,7 +27356,7 @@
         <v>1699</v>
       </c>
       <c r="D434" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E434" s="19" t="s">
@@ -27398,7 +27403,7 @@
         <v>1699</v>
       </c>
       <c r="D435" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E435" s="19" t="s">
@@ -27445,7 +27450,7 @@
         <v>1699</v>
       </c>
       <c r="D436" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E436" s="19"/>
@@ -27490,7 +27495,7 @@
         <v>1699</v>
       </c>
       <c r="D437" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E437" s="19" t="s">
@@ -27537,7 +27542,7 @@
         <v>1699</v>
       </c>
       <c r="D438" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E438" s="19" t="s">
@@ -27584,7 +27589,7 @@
         <v>1699</v>
       </c>
       <c r="D439" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E439" s="19"/>
@@ -27629,7 +27634,7 @@
         <v>1699</v>
       </c>
       <c r="D440" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E440" s="19"/>
@@ -27674,7 +27679,7 @@
         <v>1699</v>
       </c>
       <c r="D441" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E441" s="19" t="s">
@@ -27721,7 +27726,7 @@
         <v>1699</v>
       </c>
       <c r="D442" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E442" s="19" t="s">
@@ -27768,7 +27773,7 @@
         <v>1699</v>
       </c>
       <c r="D443" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E443" s="19"/>
@@ -27813,7 +27818,7 @@
         <v>1699</v>
       </c>
       <c r="D444" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E444" s="19"/>
@@ -27858,7 +27863,7 @@
         <v>1699</v>
       </c>
       <c r="D445" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E445" s="19"/>
@@ -27901,7 +27906,7 @@
         <v>1699</v>
       </c>
       <c r="D446" s="19">
-        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela2[], 2, TRUE)</f>
+        <f>VLOOKUP(Tabela1[[#This Row],[Categoria]], Tabela25[], 2, TRUE)</f>
         <v>14</v>
       </c>
       <c r="E446" s="19" t="s">
@@ -27957,24 +27962,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{477EEE8F-F303-4CE0-8B6A-4AA8A0215DCB}">
-          <x14:formula1>
-            <xm:f>Referencias!$B$2:$B$27</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C446</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{41442734-D66E-4FFB-A864-26CE574DDE17}">
           <x14:formula1>
-            <xm:f>Referencias!$E$3:$E$113</xm:f>
+            <xm:f>Subcategorias!$A$3:$A$113</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E446</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{93E386EB-0BB8-43ED-976C-12D9ECAD8FA7}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{477EEE8F-F303-4CE0-8B6A-4AA8A0215DCB}">
           <x14:formula1>
-            <xm:f>Referencias!$H$2:$H$9</xm:f>
+            <xm:f>Subcategorias!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N446</xm:sqref>
+          <xm:sqref>C2:C446 N2:N446</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -27985,849 +27984,867 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9381276-47C4-4D36-A9D5-261702351151}">
   <sheetPr codeName="Planilha2"/>
-  <dimension ref="B1:N114"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B60" activeCellId="1" sqref="A1 A1:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="37" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="37" t="s">
         <v>1850</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="37" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="37"/>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="36" t="s">
+        <v>444</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="36" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="36" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="36" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="36" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="36" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="36" t="s">
+        <v>526</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="36" t="s">
         <v>1851</v>
       </c>
-      <c r="F1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="36" t="s">
+        <v>367</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="36" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="36" t="s">
+        <v>964</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="36" t="s">
+        <v>450</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="36" t="s">
         <v>1852</v>
       </c>
-      <c r="N1" s="5"/>
-    </row>
-    <row r="2" spans="2:14">
-      <c r="B2" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="37"/>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="B21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="36" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="36" t="s">
+        <v>726</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>444</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="36" t="s">
-        <v>342</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="36" t="s">
+        <v>374</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="36" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="36" t="s">
+        <v>532</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="36" t="s">
+        <v>618</v>
+      </c>
+      <c r="B34">
         <v>33</v>
       </c>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="36" t="s">
-        <v>725</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>1704</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="5" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="36" t="s">
+        <v>618</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="36" t="s">
+        <v>985</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="36" t="s">
+        <v>300</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="36" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="36" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="36" t="s">
+        <v>437</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="36" t="s">
+        <v>663</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="36" t="s">
+        <v>663</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="36" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="36" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B54">
         <v>53</v>
       </c>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="36" t="s">
-        <v>821</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>1458</v>
-      </c>
-      <c r="N7" s="5"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="36" t="s">
-        <v>883</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>1514</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="36" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>395</v>
-      </c>
-      <c r="F9">
-        <v>8</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="36" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>1719</v>
-      </c>
-      <c r="F10">
-        <v>9</v>
-      </c>
-      <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="36" t="s">
-        <v>1290</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>526</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="36" t="s">
-        <v>1460</v>
-      </c>
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>1853</v>
-      </c>
-      <c r="F12">
-        <v>11</v>
-      </c>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="36" t="s">
-        <v>1499</v>
-      </c>
-      <c r="C13">
-        <v>12</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="36" t="s">
-        <v>1513</v>
-      </c>
-      <c r="C14">
-        <v>13</v>
-      </c>
-      <c r="E14" s="36" t="s">
-        <v>367</v>
-      </c>
-      <c r="F14">
-        <v>13</v>
-      </c>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="36" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C15">
-        <v>14</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>1710</v>
-      </c>
-      <c r="F15">
-        <v>14</v>
-      </c>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="5"/>
-      <c r="E16" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16">
-        <v>15</v>
-      </c>
-      <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="5"/>
-      <c r="E17" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-      <c r="N17" s="5"/>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="5"/>
-      <c r="E18" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-      <c r="N18" s="5"/>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="5"/>
-      <c r="E19" s="36" t="s">
-        <v>964</v>
-      </c>
-      <c r="F19">
-        <v>18</v>
-      </c>
-      <c r="N19" s="5"/>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="5"/>
-      <c r="E20" s="36" t="s">
-        <v>450</v>
-      </c>
-      <c r="F20">
-        <v>19</v>
-      </c>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="5"/>
-      <c r="E21" s="36" t="s">
-        <v>1854</v>
-      </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="5"/>
-      <c r="E22" s="36" t="s">
-        <v>1855</v>
-      </c>
-      <c r="F22">
-        <v>21</v>
-      </c>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="5"/>
-      <c r="E23" s="36" t="s">
-        <v>726</v>
-      </c>
-      <c r="F23">
-        <v>22</v>
-      </c>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="5"/>
-      <c r="E24" s="36" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="36" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B56">
         <v>55</v>
       </c>
-      <c r="F24">
-        <v>23</v>
-      </c>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="5"/>
-      <c r="E25" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="F25">
-        <v>24</v>
-      </c>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" s="5"/>
-      <c r="E26" s="36" t="s">
-        <v>431</v>
-      </c>
-      <c r="F26">
-        <v>25</v>
-      </c>
-      <c r="N26" s="5"/>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" s="5"/>
-      <c r="E27" s="36" t="s">
-        <v>374</v>
-      </c>
-      <c r="F27">
-        <v>26</v>
-      </c>
-      <c r="N27" s="5"/>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="E28" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="F28">
-        <v>27</v>
-      </c>
-      <c r="N28" s="5"/>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="E29" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-      <c r="N29" s="5"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="E30" s="36" t="s">
-        <v>1856</v>
-      </c>
-      <c r="F30">
-        <v>29</v>
-      </c>
-      <c r="N30" s="5"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="E31" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F31">
-        <v>30</v>
-      </c>
-      <c r="N31" s="5"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="E32" s="36" t="s">
-        <v>532</v>
-      </c>
-      <c r="F32">
-        <v>31</v>
-      </c>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="5:14">
-      <c r="E33" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="F33">
-        <v>32</v>
-      </c>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="5:14">
-      <c r="E34" s="36" t="s">
-        <v>618</v>
-      </c>
-      <c r="F34">
-        <v>33</v>
-      </c>
-      <c r="N34" s="5"/>
-    </row>
-    <row r="35" spans="5:14">
-      <c r="E35" s="36" t="s">
-        <v>618</v>
-      </c>
-      <c r="F35">
-        <v>34</v>
-      </c>
-      <c r="N35" s="5"/>
-    </row>
-    <row r="36" spans="5:14">
-      <c r="E36" s="36" t="s">
-        <v>985</v>
-      </c>
-      <c r="F36">
-        <v>35</v>
-      </c>
-      <c r="N36" s="5"/>
-    </row>
-    <row r="37" spans="5:14">
-      <c r="E37" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="F37">
-        <v>36</v>
-      </c>
-      <c r="N37" s="5"/>
-    </row>
-    <row r="38" spans="5:14">
-      <c r="E38" s="36" t="s">
-        <v>300</v>
-      </c>
-      <c r="F38">
-        <v>37</v>
-      </c>
-      <c r="N38" s="5"/>
-    </row>
-    <row r="39" spans="5:14">
-      <c r="E39" s="36" t="s">
-        <v>1300</v>
-      </c>
-      <c r="F39">
-        <v>38</v>
-      </c>
-      <c r="N39" s="5"/>
-    </row>
-    <row r="40" spans="5:14">
-      <c r="E40" s="36" t="s">
-        <v>147</v>
-      </c>
-      <c r="F40">
-        <v>39</v>
-      </c>
-      <c r="N40" s="5"/>
-    </row>
-    <row r="41" spans="5:14">
-      <c r="E41" s="36" t="s">
-        <v>1526</v>
-      </c>
-      <c r="F41">
-        <v>40</v>
-      </c>
-      <c r="N41" s="5"/>
-    </row>
-    <row r="42" spans="5:14">
-      <c r="E42" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42">
-        <v>41</v>
-      </c>
-      <c r="N42" s="5"/>
-    </row>
-    <row r="43" spans="5:14">
-      <c r="E43" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F43">
-        <v>42</v>
-      </c>
-      <c r="N43" s="5"/>
-    </row>
-    <row r="44" spans="5:14">
-      <c r="E44" s="36" t="s">
-        <v>437</v>
-      </c>
-      <c r="F44">
-        <v>43</v>
-      </c>
-      <c r="N44" s="5"/>
-    </row>
-    <row r="45" spans="5:14">
-      <c r="E45" s="36" t="s">
-        <v>663</v>
-      </c>
-      <c r="F45">
-        <v>44</v>
-      </c>
-      <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="5:14">
-      <c r="E46" s="36" t="s">
-        <v>663</v>
-      </c>
-      <c r="F46">
-        <v>45</v>
-      </c>
-      <c r="N46" s="5"/>
-    </row>
-    <row r="47" spans="5:14">
-      <c r="E47" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47">
-        <v>46</v>
-      </c>
-      <c r="N47" s="5"/>
-    </row>
-    <row r="48" spans="5:14">
-      <c r="E48" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48">
-        <v>47</v>
-      </c>
-      <c r="N48" s="5"/>
-    </row>
-    <row r="49" spans="5:14">
-      <c r="E49" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="F49">
-        <v>48</v>
-      </c>
-      <c r="N49" s="5"/>
-    </row>
-    <row r="50" spans="5:14">
-      <c r="E50" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50">
-        <v>49</v>
-      </c>
-      <c r="N50" s="5"/>
-    </row>
-    <row r="51" spans="5:14">
-      <c r="E51" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51">
-        <v>50</v>
-      </c>
-      <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="5:14">
-      <c r="E52" s="36" t="s">
-        <v>1172</v>
-      </c>
-      <c r="F52">
-        <v>51</v>
-      </c>
-      <c r="N52" s="5"/>
-    </row>
-    <row r="53" spans="5:14">
-      <c r="E53" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53">
-        <v>52</v>
-      </c>
-      <c r="N53" s="5"/>
-    </row>
-    <row r="54" spans="5:14">
-      <c r="E54" s="36" t="s">
-        <v>1857</v>
-      </c>
-      <c r="F54">
-        <v>53</v>
-      </c>
-      <c r="N54" s="5"/>
-    </row>
-    <row r="55" spans="5:14">
-      <c r="E55" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="F55">
-        <v>54</v>
-      </c>
-      <c r="N55" s="5"/>
-    </row>
-    <row r="56" spans="5:14">
-      <c r="E56" s="36" t="s">
-        <v>1858</v>
-      </c>
-      <c r="F56">
-        <v>55</v>
-      </c>
-      <c r="N56" s="5"/>
-    </row>
-    <row r="57" spans="5:14">
-      <c r="E57" s="36" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="36" t="s">
         <v>1554</v>
       </c>
-      <c r="F57">
+      <c r="B57">
         <v>56</v>
       </c>
-      <c r="N57" s="5"/>
-    </row>
-    <row r="58" spans="5:14">
-      <c r="E58" s="36" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="36" t="s">
         <v>1538</v>
       </c>
-      <c r="F58">
+      <c r="B58">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="5:14">
-      <c r="E59" s="36" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" s="36" t="s">
         <v>918</v>
       </c>
-      <c r="F59">
+      <c r="B59">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="5:14">
-      <c r="E60" s="36" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" s="36" t="s">
         <v>1692</v>
       </c>
-      <c r="F60">
+      <c r="B60">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="5:14">
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="5:14">
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="5:14">
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="5:14">
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="5:5">
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="5:5">
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="5:5">
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="5:5">
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="5:5">
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="5:5">
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="5:5">
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="5:5">
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="5:5">
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="5:5">
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="5:5">
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="5:5">
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80" spans="5:5">
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="5:5">
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="5:5">
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83" spans="5:5">
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="5:5">
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="5:5">
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="5:5">
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="5:5">
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88" spans="5:5">
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89" spans="5:5">
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="5:5">
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="5:5">
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92" spans="5:5">
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93" spans="5:5">
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94" spans="5:5">
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95" spans="5:5">
-      <c r="E95" s="5"/>
-    </row>
-    <row r="96" spans="5:5">
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="5:5">
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98" spans="5:5">
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="5:5">
-      <c r="E99" s="5"/>
-    </row>
-    <row r="100" spans="5:5">
-      <c r="E100" s="5"/>
-    </row>
-    <row r="101" spans="5:5">
-      <c r="E101" s="5"/>
-    </row>
-    <row r="102" spans="5:5">
-      <c r="E102" s="5"/>
-    </row>
-    <row r="103" spans="5:5">
-      <c r="E103" s="5"/>
-    </row>
-    <row r="104" spans="5:5">
-      <c r="E104" s="5"/>
-    </row>
-    <row r="105" spans="5:5">
-      <c r="E105" s="5"/>
-    </row>
-    <row r="106" spans="5:5">
-      <c r="E106" s="5"/>
-    </row>
-    <row r="107" spans="5:5">
-      <c r="E107" s="5"/>
-    </row>
-    <row r="108" spans="5:5">
-      <c r="E108" s="5"/>
-    </row>
-    <row r="109" spans="5:5">
-      <c r="E109" s="5"/>
-    </row>
-    <row r="110" spans="5:5">
-      <c r="E110" s="5"/>
-    </row>
-    <row r="111" spans="5:5">
-      <c r="E111" s="5"/>
-    </row>
-    <row r="112" spans="5:5">
-      <c r="E112" s="5"/>
-    </row>
-    <row r="113" spans="5:5">
-      <c r="E113" s="5"/>
-    </row>
-    <row r="114" spans="5:5"/>
+    <row r="61" spans="1:2">
+      <c r="A61" s="5"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="5"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="5"/>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="5"/>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="5"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="5"/>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="5"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="5"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="5"/>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="5"/>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="5"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="5"/>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="5"/>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="5"/>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="5"/>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="5"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="5"/>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="5"/>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="5"/>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="5"/>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="5"/>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="5"/>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="5"/>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="5"/>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="5"/>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="5"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="5"/>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="5"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="5"/>
+    </row>
+    <row r="114" spans="1:1"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D2E853-B66A-48D3-A486-A8BE4F43CEEB}">
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="37" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="36" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="36" t="s">
+        <v>366</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="36" t="s">
+        <v>725</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="36" t="s">
+        <v>821</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="36" t="s">
+        <v>883</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="36" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="36" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="36" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="36" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="36" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="36" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="36" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48537255-41BC-4888-905D-ACAFBFF2C935}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="6" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="5" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C78D6B1-77B5-42B8-85CB-B7BC21BE56B3}">
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:A448"/>
@@ -31089,7 +31106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B107434B-8D7E-4189-A6F7-CB404EA648A5}">
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A2:B462"/>

--- a/tabelas/NCs.xlsx
+++ b/tabelas/NCs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thales\Documentos\EletroAlta\Progrmacao\NaoConformidadesApp\gitHub_api\tabelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77BF7DB-9D6D-4D25-9E93-820B7F95DFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803AA6B0-3E17-40A6-8AF8-D133369574B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7255,7 +7255,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.85546875" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.25"/>
